--- a/UsedCarsWorking.xlsx
+++ b/UsedCarsWorking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Documents\UsedCarDashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA2DABC-ADFD-45A7-ABEC-F3B60462887F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B6CFE9-6E7D-49F3-8808-64CDBFA67677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B76DEB4-6821-4B42-B7E4-43849333BE5F}"/>
   </bookViews>
@@ -1735,13 +1735,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1751,14 +1751,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF7030A0"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2099,7 +2099,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="I51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2195,7 +2195,7 @@
       <c r="B2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="22">
         <v>8995</v>
       </c>
       <c r="D2" s="15">
@@ -2213,7 +2213,7 @@
       <c r="H2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="21">
         <v>58223</v>
       </c>
       <c r="J2" s="15" t="b">
@@ -2270,7 +2270,7 @@
       <c r="B3" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="22">
         <v>19995</v>
       </c>
       <c r="D3" s="15">
@@ -2288,7 +2288,7 @@
       <c r="H3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="21">
         <v>50340</v>
       </c>
       <c r="J3" s="15" t="b">
@@ -2345,7 +2345,7 @@
       <c r="B4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="22">
         <v>5900</v>
       </c>
       <c r="D4" s="15">
@@ -2363,7 +2363,7 @@
       <c r="H4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="21">
         <v>181650</v>
       </c>
       <c r="J4" s="15" t="b">
@@ -2420,7 +2420,7 @@
       <c r="B5" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="22">
         <v>9495</v>
       </c>
       <c r="D5" s="15">
@@ -2438,7 +2438,7 @@
       <c r="H5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="21">
         <v>113826</v>
       </c>
       <c r="J5" s="15" t="b">
@@ -2495,7 +2495,7 @@
       <c r="B6" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="22">
         <v>9495</v>
       </c>
       <c r="D6" s="15">
@@ -2513,7 +2513,7 @@
       <c r="H6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="21">
         <v>107355</v>
       </c>
       <c r="J6" s="15" t="b">
@@ -2570,7 +2570,7 @@
       <c r="B7" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="22">
         <v>20000</v>
       </c>
       <c r="D7" s="15">
@@ -2588,7 +2588,7 @@
       <c r="H7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="21">
         <v>75020</v>
       </c>
       <c r="J7" s="15" t="b">
@@ -2645,7 +2645,7 @@
       <c r="B8" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="22">
         <v>19999</v>
       </c>
       <c r="D8" s="15">
@@ -2663,7 +2663,7 @@
       <c r="H8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="21">
         <v>151543</v>
       </c>
       <c r="J8" s="15" t="b">
@@ -2720,7 +2720,7 @@
       <c r="B9" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="22">
         <v>29495</v>
       </c>
       <c r="D9" s="15">
@@ -2738,7 +2738,7 @@
       <c r="H9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="21">
         <v>91750</v>
       </c>
       <c r="J9" s="15" t="b">
@@ -2795,7 +2795,7 @@
       <c r="B10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="22">
         <v>8699</v>
       </c>
       <c r="D10" s="15">
@@ -2813,7 +2813,7 @@
       <c r="H10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="21">
         <v>68327</v>
       </c>
       <c r="J10" s="15" t="b">
@@ -2870,7 +2870,7 @@
       <c r="B11" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="22">
         <v>19991</v>
       </c>
       <c r="D11" s="15">
@@ -2888,7 +2888,7 @@
       <c r="H11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="21">
         <v>80758</v>
       </c>
       <c r="J11" s="15" t="b">
@@ -2945,7 +2945,7 @@
       <c r="B12" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="22">
         <v>12499</v>
       </c>
       <c r="D12" s="15">
@@ -2963,7 +2963,7 @@
       <c r="H12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="21">
         <v>71300</v>
       </c>
       <c r="J12" s="15" t="b">
@@ -3020,7 +3020,7 @@
       <c r="B13" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="22">
         <v>11991</v>
       </c>
       <c r="D13" s="15">
@@ -3038,7 +3038,7 @@
       <c r="H13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="21">
         <v>40508</v>
       </c>
       <c r="J13" s="15" t="b">
@@ -3095,7 +3095,7 @@
       <c r="B14" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="22">
         <v>17995</v>
       </c>
       <c r="D14" s="15">
@@ -3113,7 +3113,7 @@
       <c r="H14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="21">
         <v>69291</v>
       </c>
       <c r="J14" s="15" t="b">
@@ -3170,7 +3170,7 @@
       <c r="B15" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="22">
         <v>24988</v>
       </c>
       <c r="D15" s="15">
@@ -3188,7 +3188,7 @@
       <c r="H15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="21">
         <v>66110</v>
       </c>
       <c r="J15" s="15" t="b">
@@ -3245,7 +3245,7 @@
       <c r="B16" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="22">
         <v>25643</v>
       </c>
       <c r="D16" s="15">
@@ -3263,7 +3263,7 @@
       <c r="H16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="21">
         <v>43561</v>
       </c>
       <c r="J16" s="15" t="b">
@@ -3320,7 +3320,7 @@
       <c r="B17" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="22">
         <v>25591</v>
       </c>
       <c r="D17" s="15">
@@ -3338,7 +3338,7 @@
       <c r="H17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="21">
         <v>76131</v>
       </c>
       <c r="J17" s="15" t="b">
@@ -3395,7 +3395,7 @@
       <c r="B18" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="22">
         <v>18995</v>
       </c>
       <c r="D18" s="15">
@@ -3411,7 +3411,7 @@
       <c r="H18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="21">
         <v>82533</v>
       </c>
       <c r="J18" s="15" t="b">
@@ -3468,7 +3468,7 @@
       <c r="B19" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="22">
         <v>13995</v>
       </c>
       <c r="D19" s="15">
@@ -3484,7 +3484,7 @@
       <c r="H19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="21">
         <v>99993</v>
       </c>
       <c r="J19" s="15" t="b">
@@ -3541,7 +3541,7 @@
       <c r="B20" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="22">
         <v>20995</v>
       </c>
       <c r="D20" s="15">
@@ -3557,7 +3557,7 @@
       <c r="H20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="21">
         <v>86973</v>
       </c>
       <c r="J20" s="15" t="b">
@@ -3614,7 +3614,7 @@
       <c r="B21" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="22">
         <v>9498</v>
       </c>
       <c r="D21" s="15">
@@ -3630,7 +3630,7 @@
       <c r="H21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="21">
         <v>99200</v>
       </c>
       <c r="J21" s="15" t="b">
@@ -3687,7 +3687,7 @@
       <c r="B22" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="22">
         <v>27591</v>
       </c>
       <c r="D22" s="15">
@@ -3705,7 +3705,7 @@
       <c r="H22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="21">
         <v>37249</v>
       </c>
       <c r="J22" s="15" t="b">
@@ -3762,7 +3762,7 @@
       <c r="B23" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="22">
         <v>3990</v>
       </c>
       <c r="D23" s="15">
@@ -3778,7 +3778,7 @@
       <c r="H23" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="21">
         <v>126396</v>
       </c>
       <c r="J23" s="15" t="b">
@@ -3835,7 +3835,7 @@
       <c r="B24" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="22">
         <v>7999</v>
       </c>
       <c r="D24" s="15">
@@ -3853,7 +3853,7 @@
       <c r="H24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="21">
         <v>92009</v>
       </c>
       <c r="J24" s="15" t="b">
@@ -3910,7 +3910,7 @@
       <c r="B25" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="22">
         <v>11900</v>
       </c>
       <c r="D25" s="15">
@@ -3928,7 +3928,7 @@
       <c r="H25" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="21">
         <v>37343</v>
       </c>
       <c r="J25" s="15" t="b">
@@ -3985,7 +3985,7 @@
       <c r="B26" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="22">
         <v>10995</v>
       </c>
       <c r="D26" s="15">
@@ -4003,7 +4003,7 @@
       <c r="H26" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="21">
         <v>35445</v>
       </c>
       <c r="J26" s="15" t="b">
@@ -4060,7 +4060,7 @@
       <c r="B27" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="22">
         <v>24000</v>
       </c>
       <c r="D27" s="15">
@@ -4076,7 +4076,7 @@
       <c r="H27" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="21">
         <v>25637</v>
       </c>
       <c r="J27" s="15" t="b">
@@ -4133,7 +4133,7 @@
       <c r="B28" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="22">
         <v>9998</v>
       </c>
       <c r="D28" s="15">
@@ -4149,7 +4149,7 @@
       <c r="H28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="21">
         <v>134690</v>
       </c>
       <c r="J28" s="15" t="b">
@@ -4206,7 +4206,7 @@
       <c r="B29" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="22">
         <v>14999</v>
       </c>
       <c r="D29" s="15">
@@ -4224,7 +4224,7 @@
       <c r="H29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="21">
         <v>61031</v>
       </c>
       <c r="J29" s="15" t="b">
@@ -4281,7 +4281,7 @@
       <c r="B30" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="22">
         <v>8800</v>
       </c>
       <c r="D30" s="15">
@@ -4297,7 +4297,7 @@
       <c r="H30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="21">
         <v>133112</v>
       </c>
       <c r="J30" s="15" t="b">
@@ -4354,7 +4354,7 @@
       <c r="B31" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="22">
         <v>21951</v>
       </c>
       <c r="D31" s="15">
@@ -4370,7 +4370,7 @@
       <c r="H31" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="21">
         <v>46326</v>
       </c>
       <c r="J31" s="15" t="b">
@@ -4427,7 +4427,7 @@
       <c r="B32" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="22">
         <v>11595</v>
       </c>
       <c r="D32" s="15">
@@ -4445,7 +4445,7 @@
       <c r="H32" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="21">
         <v>84168</v>
       </c>
       <c r="J32" s="15" t="b">
@@ -4502,7 +4502,7 @@
       <c r="B33" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="22">
         <v>22998</v>
       </c>
       <c r="D33" s="15">
@@ -4520,7 +4520,7 @@
       <c r="H33" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="21">
         <v>43102</v>
       </c>
       <c r="J33" s="15" t="b">
@@ -4577,7 +4577,7 @@
       <c r="B34" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="22">
         <v>14000</v>
       </c>
       <c r="D34" s="15">
@@ -4593,7 +4593,7 @@
       <c r="H34" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="21">
         <v>74000</v>
       </c>
       <c r="J34" s="15" t="b">
@@ -4650,7 +4650,7 @@
       <c r="B35" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="22">
         <v>11995</v>
       </c>
       <c r="D35" s="15">
@@ -4666,7 +4666,7 @@
       <c r="H35" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="21">
         <v>134426</v>
       </c>
       <c r="J35" s="15" t="b">
@@ -4723,7 +4723,7 @@
       <c r="B36" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="22">
         <v>10995</v>
       </c>
       <c r="D36" s="15">
@@ -4741,7 +4741,7 @@
       <c r="H36" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="21">
         <v>66821</v>
       </c>
       <c r="J36" s="15" t="b">
@@ -4798,7 +4798,7 @@
       <c r="B37" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="22">
         <v>24300</v>
       </c>
       <c r="D37" s="15">
@@ -4816,7 +4816,7 @@
       <c r="H37" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="21">
         <v>29211</v>
       </c>
       <c r="J37" s="15" t="b">
@@ -4873,7 +4873,7 @@
       <c r="B38" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="22">
         <v>8990</v>
       </c>
       <c r="D38" s="15">
@@ -4889,7 +4889,7 @@
       <c r="H38" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="21">
         <v>100074</v>
       </c>
       <c r="J38" s="15" t="b">
@@ -4946,7 +4946,7 @@
       <c r="B39" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="22">
         <v>9900</v>
       </c>
       <c r="D39" s="15">
@@ -4962,7 +4962,7 @@
       <c r="H39" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I39" s="21">
         <v>118371</v>
       </c>
       <c r="J39" s="15" t="b">
@@ -5019,7 +5019,7 @@
       <c r="B40" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="22">
         <v>7000</v>
       </c>
       <c r="D40" s="15">
@@ -5035,7 +5035,7 @@
       <c r="H40" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I40" s="21">
         <v>113585</v>
       </c>
       <c r="J40" s="15" t="b">
@@ -5092,7 +5092,7 @@
       <c r="B41" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="22">
         <v>17995</v>
       </c>
       <c r="D41" s="15">
@@ -5110,7 +5110,7 @@
       <c r="H41" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I41" s="21">
         <v>99845</v>
       </c>
       <c r="J41" s="15" t="b">
@@ -5167,7 +5167,7 @@
       <c r="B42" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="22">
         <v>24998</v>
       </c>
       <c r="D42" s="15">
@@ -5185,7 +5185,7 @@
       <c r="H42" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I42" s="21">
         <v>43989</v>
       </c>
       <c r="J42" s="15" t="b">
@@ -5242,7 +5242,7 @@
       <c r="B43" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="22">
         <v>25995</v>
       </c>
       <c r="D43" s="15">
@@ -5260,7 +5260,7 @@
       <c r="H43" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I43" s="21">
         <v>61796</v>
       </c>
       <c r="J43" s="15" t="b">
@@ -5317,7 +5317,7 @@
       <c r="B44" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="22">
         <v>8995</v>
       </c>
       <c r="D44" s="15">
@@ -5335,7 +5335,7 @@
       <c r="H44" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="21">
         <v>72000</v>
       </c>
       <c r="J44" s="15" t="b">
@@ -5392,7 +5392,7 @@
       <c r="B45" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="22">
         <v>8995</v>
       </c>
       <c r="D45" s="15">
@@ -5410,7 +5410,7 @@
       <c r="H45" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="21">
         <v>98984</v>
       </c>
       <c r="J45" s="15" t="b">
@@ -5467,7 +5467,7 @@
       <c r="B46" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="22">
         <v>15395</v>
       </c>
       <c r="D46" s="15">
@@ -5483,7 +5483,7 @@
       <c r="H46" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I46" s="21">
         <v>101100</v>
       </c>
       <c r="J46" s="15" t="b">
@@ -5540,7 +5540,7 @@
       <c r="B47" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="22">
         <v>29900</v>
       </c>
       <c r="D47" s="15">
@@ -5556,7 +5556,7 @@
       <c r="H47" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="21">
         <v>31384</v>
       </c>
       <c r="J47" s="15" t="b">
@@ -5613,7 +5613,7 @@
       <c r="B48" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="22">
         <v>19999</v>
       </c>
       <c r="D48" s="15">
@@ -5631,7 +5631,7 @@
       <c r="H48" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I48" s="21">
         <v>59353</v>
       </c>
       <c r="J48" s="15" t="b">
@@ -5688,7 +5688,7 @@
       <c r="B49" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="22">
         <v>23995</v>
       </c>
       <c r="D49" s="15">
@@ -5706,7 +5706,7 @@
       <c r="H49" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I49" s="21">
         <v>80333</v>
       </c>
       <c r="J49" s="15" t="b">
@@ -5763,7 +5763,7 @@
       <c r="B50" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="22">
         <v>27801</v>
       </c>
       <c r="D50" s="15">
@@ -5781,7 +5781,7 @@
       <c r="H50" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I50" s="21">
         <v>30332</v>
       </c>
       <c r="J50" s="15" t="b">
@@ -5838,7 +5838,7 @@
       <c r="B51" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="22">
         <v>23200</v>
       </c>
       <c r="D51" s="15">
@@ -5856,7 +5856,7 @@
       <c r="H51" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I51" s="21">
         <v>103577</v>
       </c>
       <c r="J51" s="15" t="b">
@@ -5913,7 +5913,7 @@
       <c r="B52" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="22">
         <v>16191</v>
       </c>
       <c r="D52" s="15">
@@ -5929,7 +5929,7 @@
       <c r="H52" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="21">
         <v>40900</v>
       </c>
       <c r="J52" s="15" t="b">
@@ -5986,7 +5986,7 @@
       <c r="B53" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="22">
         <v>15995</v>
       </c>
       <c r="D53" s="15">
@@ -6004,7 +6004,7 @@
       <c r="H53" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I53" s="21">
         <v>109429</v>
       </c>
       <c r="J53" s="15" t="b">
@@ -6061,7 +6061,7 @@
       <c r="B54" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="22">
         <v>5800</v>
       </c>
       <c r="D54" s="15">
@@ -6079,7 +6079,7 @@
       <c r="H54" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I54" s="21">
         <v>140477</v>
       </c>
       <c r="J54" s="15" t="b">
@@ -6136,7 +6136,7 @@
       <c r="B55" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="16">
+      <c r="C55" s="22">
         <v>5900</v>
       </c>
       <c r="D55" s="15">
@@ -6154,7 +6154,7 @@
       <c r="H55" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="21">
         <v>142123</v>
       </c>
       <c r="J55" s="15" t="b">
@@ -6211,7 +6211,7 @@
       <c r="B56" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C56" s="22">
         <v>13491</v>
       </c>
       <c r="D56" s="15">
@@ -6229,7 +6229,7 @@
       <c r="H56" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I56" s="21">
         <v>94285</v>
       </c>
       <c r="J56" s="15" t="b">
@@ -6286,7 +6286,7 @@
       <c r="B57" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="22">
         <v>17991</v>
       </c>
       <c r="D57" s="15">
@@ -6304,7 +6304,7 @@
       <c r="H57" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I57" s="21">
         <v>113248</v>
       </c>
       <c r="J57" s="15" t="b">
@@ -6361,7 +6361,7 @@
       <c r="B58" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="C58" s="16">
+      <c r="C58" s="22">
         <v>9995</v>
       </c>
       <c r="D58" s="15">
@@ -6379,7 +6379,7 @@
       <c r="H58" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58" s="21">
         <v>96154</v>
       </c>
       <c r="J58" s="15" t="b">
@@ -6436,7 +6436,7 @@
       <c r="B59" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C59" s="16">
+      <c r="C59" s="22">
         <v>7995</v>
       </c>
       <c r="D59" s="15">
@@ -6454,7 +6454,7 @@
       <c r="H59" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59" s="21">
         <v>126621</v>
       </c>
       <c r="J59" s="15" t="b">
@@ -6511,7 +6511,7 @@
       <c r="B60" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="22">
         <v>9299</v>
       </c>
       <c r="D60" s="15">
@@ -6529,7 +6529,7 @@
       <c r="H60" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I60" s="21">
         <v>70975</v>
       </c>
       <c r="J60" s="15" t="b">
@@ -6586,7 +6586,7 @@
       <c r="B61" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="C61" s="16">
+      <c r="C61" s="22">
         <v>19997</v>
       </c>
       <c r="D61" s="15">
@@ -6604,7 +6604,7 @@
       <c r="H61" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I61" s="17">
+      <c r="I61" s="21">
         <v>90300</v>
       </c>
       <c r="J61" s="15" t="b">
@@ -6661,7 +6661,7 @@
       <c r="B62" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="C62" s="16">
+      <c r="C62" s="22">
         <v>16995</v>
       </c>
       <c r="D62" s="15">
@@ -6679,7 +6679,7 @@
       <c r="H62" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I62" s="17">
+      <c r="I62" s="21">
         <v>129734</v>
       </c>
       <c r="J62" s="15" t="b">
@@ -6736,7 +6736,7 @@
       <c r="B63" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="C63" s="16">
+      <c r="C63" s="22">
         <v>10295</v>
       </c>
       <c r="D63" s="15">
@@ -6754,7 +6754,7 @@
       <c r="H63" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I63" s="17">
+      <c r="I63" s="21">
         <v>98406</v>
       </c>
       <c r="J63" s="15" t="b">
@@ -6811,7 +6811,7 @@
       <c r="B64" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C64" s="16">
+      <c r="C64" s="22">
         <v>10500</v>
       </c>
       <c r="D64" s="15">
@@ -6829,7 +6829,7 @@
       <c r="H64" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I64" s="21">
         <v>117200</v>
       </c>
       <c r="J64" s="15" t="b">
@@ -6886,7 +6886,7 @@
       <c r="B65" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="C65" s="16">
+      <c r="C65" s="22">
         <v>19291</v>
       </c>
       <c r="D65" s="15">
@@ -6904,7 +6904,7 @@
       <c r="H65" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I65" s="17">
+      <c r="I65" s="21">
         <v>90505</v>
       </c>
       <c r="J65" s="15" t="b">
@@ -6961,7 +6961,7 @@
       <c r="B66" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C66" s="16">
+      <c r="C66" s="22">
         <v>26997</v>
       </c>
       <c r="D66" s="15">
@@ -6979,7 +6979,7 @@
       <c r="H66" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I66" s="17">
+      <c r="I66" s="21">
         <v>102823</v>
       </c>
       <c r="J66" s="15" t="b">
@@ -7036,7 +7036,7 @@
       <c r="B67" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="C67" s="16">
+      <c r="C67" s="22">
         <v>8500</v>
       </c>
       <c r="D67" s="15">
@@ -7052,7 +7052,7 @@
       <c r="H67" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I67" s="17">
+      <c r="I67" s="21">
         <v>82332</v>
       </c>
       <c r="J67" s="15" t="b">
@@ -7109,7 +7109,7 @@
       <c r="B68" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C68" s="16">
+      <c r="C68" s="22">
         <v>11998</v>
       </c>
       <c r="D68" s="15">
@@ -7127,7 +7127,7 @@
       <c r="H68" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I68" s="17">
+      <c r="I68" s="21">
         <v>58867</v>
       </c>
       <c r="J68" s="15" t="b">
@@ -7184,7 +7184,7 @@
       <c r="B69" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="C69" s="16">
+      <c r="C69" s="22">
         <v>26991</v>
       </c>
       <c r="D69" s="15">
@@ -7200,7 +7200,7 @@
       <c r="H69" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I69" s="17">
+      <c r="I69" s="21">
         <v>134323</v>
       </c>
       <c r="J69" s="15" t="b">
@@ -7257,7 +7257,7 @@
       <c r="B70" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C70" s="16">
+      <c r="C70" s="22">
         <v>19500</v>
       </c>
       <c r="D70" s="15">
@@ -7275,7 +7275,7 @@
       <c r="H70" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I70" s="17">
+      <c r="I70" s="21">
         <v>69152</v>
       </c>
       <c r="J70" s="15" t="b">
@@ -7332,7 +7332,7 @@
       <c r="B71" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="C71" s="16">
+      <c r="C71" s="22">
         <v>19980</v>
       </c>
       <c r="D71" s="15">
@@ -7348,7 +7348,7 @@
       <c r="H71" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I71" s="17">
+      <c r="I71" s="21">
         <v>57156</v>
       </c>
       <c r="J71" s="15" t="b">
@@ -7405,7 +7405,7 @@
       <c r="B72" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C72" s="16">
+      <c r="C72" s="22">
         <v>27000</v>
       </c>
       <c r="D72" s="15">
@@ -7423,7 +7423,7 @@
       <c r="H72" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I72" s="17">
+      <c r="I72" s="21">
         <v>93363</v>
       </c>
       <c r="J72" s="15" t="b">
@@ -7480,7 +7480,7 @@
       <c r="B73" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="C73" s="16">
+      <c r="C73" s="22">
         <v>17500</v>
       </c>
       <c r="D73" s="15">
@@ -7498,7 +7498,7 @@
       <c r="H73" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I73" s="17">
+      <c r="I73" s="21">
         <v>99895</v>
       </c>
       <c r="J73" s="15" t="b">
@@ -7555,7 +7555,7 @@
       <c r="B74" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="C74" s="16">
+      <c r="C74" s="22">
         <v>19591</v>
       </c>
       <c r="D74" s="15">
@@ -7573,7 +7573,7 @@
       <c r="H74" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I74" s="17">
+      <c r="I74" s="21">
         <v>56464</v>
       </c>
       <c r="J74" s="15" t="b">
@@ -7630,7 +7630,7 @@
       <c r="B75" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="C75" s="16">
+      <c r="C75" s="22">
         <v>29991</v>
       </c>
       <c r="D75" s="15">
@@ -7648,7 +7648,7 @@
       <c r="H75" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I75" s="17">
+      <c r="I75" s="21">
         <v>45762</v>
       </c>
       <c r="J75" s="15" t="b">
@@ -7705,7 +7705,7 @@
       <c r="B76" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C76" s="16">
+      <c r="C76" s="22">
         <v>6499</v>
       </c>
       <c r="D76" s="15">
@@ -7723,7 +7723,7 @@
       <c r="H76" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I76" s="17">
+      <c r="I76" s="21">
         <v>135256</v>
       </c>
       <c r="J76" s="15" t="b">
@@ -7780,7 +7780,7 @@
       <c r="B77" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C77" s="16">
+      <c r="C77" s="22">
         <v>9250</v>
       </c>
       <c r="D77" s="15">
@@ -7796,7 +7796,7 @@
       <c r="H77" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I77" s="17">
+      <c r="I77" s="21">
         <v>141950</v>
       </c>
       <c r="J77" s="15" t="b">
@@ -7853,7 +7853,7 @@
       <c r="B78" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="C78" s="16">
+      <c r="C78" s="22">
         <v>16999</v>
       </c>
       <c r="D78" s="15">
@@ -7869,7 +7869,7 @@
       <c r="H78" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I78" s="17">
+      <c r="I78" s="21">
         <v>70403</v>
       </c>
       <c r="J78" s="15" t="b">
@@ -7926,7 +7926,7 @@
       <c r="B79" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C79" s="16">
+      <c r="C79" s="22">
         <v>7299</v>
       </c>
       <c r="D79" s="15">
@@ -7944,7 +7944,7 @@
       <c r="H79" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I79" s="15">
+      <c r="I79" s="21">
         <v>92583</v>
       </c>
       <c r="J79" s="15" t="b">
@@ -8001,7 +8001,7 @@
       <c r="B80" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C80" s="16">
+      <c r="C80" s="22">
         <v>5495</v>
       </c>
       <c r="D80" s="15">
@@ -8019,7 +8019,7 @@
       <c r="H80" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I80" s="15">
+      <c r="I80" s="21">
         <v>149812</v>
       </c>
       <c r="J80" s="15" t="b">
@@ -8076,7 +8076,7 @@
       <c r="B81" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C81" s="16">
+      <c r="C81" s="22">
         <v>4994</v>
       </c>
       <c r="D81" s="15">
@@ -8092,7 +8092,7 @@
       <c r="H81" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I81" s="17">
+      <c r="I81" s="21">
         <v>203339</v>
       </c>
       <c r="J81" s="15" t="b">
@@ -8149,7 +8149,7 @@
       <c r="B82" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C82" s="16">
+      <c r="C82" s="22">
         <v>14000</v>
       </c>
       <c r="D82" s="15">
@@ -8167,7 +8167,7 @@
       <c r="H82" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I82" s="17">
+      <c r="I82" s="21">
         <v>74498</v>
       </c>
       <c r="J82" s="15" t="b">
@@ -8224,7 +8224,7 @@
       <c r="B83" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="C83" s="16">
+      <c r="C83" s="22">
         <v>16850</v>
       </c>
       <c r="D83" s="15">
@@ -8242,7 +8242,7 @@
       <c r="H83" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I83" s="17">
+      <c r="I83" s="21">
         <v>95740</v>
       </c>
       <c r="J83" s="15" t="b">
@@ -8299,7 +8299,7 @@
       <c r="B84" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="C84" s="16">
+      <c r="C84" s="22">
         <v>13500</v>
       </c>
       <c r="D84" s="15">
@@ -8317,7 +8317,7 @@
       <c r="H84" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I84" s="17">
+      <c r="I84" s="21">
         <v>76961</v>
       </c>
       <c r="J84" s="15" t="b">
@@ -8374,7 +8374,7 @@
       <c r="B85" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C85" s="16">
+      <c r="C85" s="22">
         <v>6800</v>
       </c>
       <c r="D85" s="15">
@@ -8392,7 +8392,7 @@
       <c r="H85" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I85" s="17">
+      <c r="I85" s="21">
         <v>171248</v>
       </c>
       <c r="J85" s="15" t="b">
@@ -8449,7 +8449,7 @@
       <c r="B86" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C86" s="16">
+      <c r="C86" s="22">
         <v>6450</v>
       </c>
       <c r="D86" s="15">
@@ -8465,7 +8465,7 @@
       <c r="H86" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I86" s="17">
+      <c r="I86" s="21">
         <v>139263</v>
       </c>
       <c r="J86" s="15" t="b">
@@ -8522,7 +8522,7 @@
       <c r="B87" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="C87" s="16">
+      <c r="C87" s="22">
         <v>16900</v>
       </c>
       <c r="D87" s="15">
@@ -8540,7 +8540,7 @@
       <c r="H87" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I87" s="17">
+      <c r="I87" s="21">
         <v>57125</v>
       </c>
       <c r="J87" s="15" t="b">
@@ -8597,7 +8597,7 @@
       <c r="B88" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="C88" s="16">
+      <c r="C88" s="22">
         <v>18995</v>
       </c>
       <c r="D88" s="15">
@@ -8615,7 +8615,7 @@
       <c r="H88" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I88" s="17">
+      <c r="I88" s="21">
         <v>61023</v>
       </c>
       <c r="J88" s="15" t="b">
@@ -8672,7 +8672,7 @@
       <c r="B89" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="C89" s="16">
+      <c r="C89" s="22">
         <v>16995</v>
       </c>
       <c r="D89" s="15">
@@ -8688,7 +8688,7 @@
       <c r="H89" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I89" s="17">
+      <c r="I89" s="21">
         <v>99812</v>
       </c>
       <c r="J89" s="15" t="b">
@@ -8745,7 +8745,7 @@
       <c r="B90" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="C90" s="16">
+      <c r="C90" s="22">
         <v>27991</v>
       </c>
       <c r="D90" s="15">
@@ -8763,7 +8763,7 @@
       <c r="H90" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I90" s="17">
+      <c r="I90" s="21">
         <v>79116</v>
       </c>
       <c r="J90" s="15" t="b">
@@ -8820,7 +8820,7 @@
       <c r="B91" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="C91" s="16">
+      <c r="C91" s="22">
         <v>5888</v>
       </c>
       <c r="D91" s="15">
@@ -8838,7 +8838,7 @@
       <c r="H91" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I91" s="17">
+      <c r="I91" s="21">
         <v>40866</v>
       </c>
       <c r="J91" s="15" t="b">
@@ -8895,7 +8895,7 @@
       <c r="B92" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="C92" s="16">
+      <c r="C92" s="22">
         <v>14300</v>
       </c>
       <c r="D92" s="15">
@@ -8913,7 +8913,7 @@
       <c r="H92" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I92" s="17">
+      <c r="I92" s="21">
         <v>66555</v>
       </c>
       <c r="J92" s="15" t="b">
@@ -8970,7 +8970,7 @@
       <c r="B93" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="C93" s="16">
+      <c r="C93" s="22">
         <v>14998</v>
       </c>
       <c r="D93" s="15">
@@ -8988,7 +8988,7 @@
       <c r="H93" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I93" s="17">
+      <c r="I93" s="21">
         <v>98027</v>
       </c>
       <c r="J93" s="15" t="b">
@@ -9045,7 +9045,7 @@
       <c r="B94" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="C94" s="16">
+      <c r="C94" s="22">
         <v>16495</v>
       </c>
       <c r="D94" s="15">
@@ -9063,7 +9063,7 @@
       <c r="H94" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I94" s="17">
+      <c r="I94" s="21">
         <v>117992</v>
       </c>
       <c r="J94" s="15" t="b">
@@ -9120,7 +9120,7 @@
       <c r="B95" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="C95" s="16">
+      <c r="C95" s="22">
         <v>19999</v>
       </c>
       <c r="D95" s="15">
@@ -9136,7 +9136,7 @@
       <c r="H95" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I95" s="17">
+      <c r="I95" s="21">
         <v>49100</v>
       </c>
       <c r="J95" s="15" t="b">
@@ -9193,7 +9193,7 @@
       <c r="B96" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C96" s="16">
+      <c r="C96" s="22">
         <v>4900</v>
       </c>
       <c r="D96" s="15">
@@ -9209,7 +9209,7 @@
       <c r="H96" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I96" s="17">
+      <c r="I96" s="21">
         <v>165200</v>
       </c>
       <c r="J96" s="15" t="b">
@@ -9266,7 +9266,7 @@
       <c r="B97" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C97" s="16">
+      <c r="C97" s="22">
         <v>17493</v>
       </c>
       <c r="D97" s="15">
@@ -9284,7 +9284,7 @@
       <c r="H97" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I97" s="17">
+      <c r="I97" s="21">
         <v>84878</v>
       </c>
       <c r="J97" s="15" t="b">
@@ -9341,7 +9341,7 @@
       <c r="B98" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C98" s="16">
+      <c r="C98" s="22">
         <v>5777</v>
       </c>
       <c r="D98" s="15">
@@ -9359,7 +9359,7 @@
       <c r="H98" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I98" s="17">
+      <c r="I98" s="21">
         <v>178000</v>
       </c>
       <c r="J98" s="15" t="b">
@@ -9416,7 +9416,7 @@
       <c r="B99" t="s">
         <v>368</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="8">
         <v>6499</v>
       </c>
       <c r="D99">
@@ -9491,7 +9491,7 @@
       <c r="B100" t="s">
         <v>371</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="8">
         <v>17400</v>
       </c>
       <c r="D100">
@@ -9566,7 +9566,7 @@
       <c r="B101" t="s">
         <v>375</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="8">
         <v>17495</v>
       </c>
       <c r="D101">
@@ -9641,7 +9641,7 @@
       <c r="B102" t="s">
         <v>376</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="8">
         <v>9995</v>
       </c>
       <c r="D102">
@@ -9716,7 +9716,7 @@
       <c r="B103" t="s">
         <v>378</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="8">
         <v>6000</v>
       </c>
       <c r="D103">
@@ -9791,7 +9791,7 @@
       <c r="B104" t="s">
         <v>380</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="8">
         <v>4495</v>
       </c>
       <c r="D104">
@@ -9866,7 +9866,7 @@
       <c r="B105" t="s">
         <v>382</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="8">
         <v>7495</v>
       </c>
       <c r="D105">
@@ -9941,7 +9941,7 @@
       <c r="B106" t="s">
         <v>385</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="8">
         <v>7495</v>
       </c>
       <c r="D106">
@@ -10016,7 +10016,7 @@
       <c r="B107" t="s">
         <v>388</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="8">
         <v>13000</v>
       </c>
       <c r="D107">
@@ -10091,7 +10091,7 @@
       <c r="B108" t="s">
         <v>389</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="8">
         <v>12000</v>
       </c>
       <c r="D108">
@@ -10166,7 +10166,7 @@
       <c r="B109" t="s">
         <v>390</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="8">
         <v>19999</v>
       </c>
       <c r="D109">
@@ -10241,7 +10241,7 @@
       <c r="B110" t="s">
         <v>338</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="8">
         <v>7995</v>
       </c>
       <c r="D110">
@@ -10316,7 +10316,7 @@
       <c r="B111" t="s">
         <v>342</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="8">
         <v>9450</v>
       </c>
       <c r="D111">
@@ -10391,7 +10391,7 @@
       <c r="B112" t="s">
         <v>345</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="8">
         <v>8495</v>
       </c>
       <c r="D112">
@@ -10466,7 +10466,7 @@
       <c r="B113" t="s">
         <v>348</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="8">
         <v>6200</v>
       </c>
       <c r="D113">
@@ -10541,7 +10541,7 @@
       <c r="B114" t="s">
         <v>352</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="8">
         <v>7750</v>
       </c>
       <c r="D114">
@@ -10616,7 +10616,7 @@
       <c r="B115" t="s">
         <v>355</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="8">
         <v>8999</v>
       </c>
       <c r="D115">
@@ -10691,7 +10691,7 @@
       <c r="B116" t="s">
         <v>358</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="8">
         <v>7995</v>
       </c>
       <c r="D116">
@@ -10766,7 +10766,7 @@
       <c r="B117" t="s">
         <v>361</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="8">
         <v>7950</v>
       </c>
       <c r="D117">
@@ -10841,7 +10841,7 @@
       <c r="B118" t="s">
         <v>365</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="8">
         <v>2995</v>
       </c>
       <c r="D118">
@@ -10916,7 +10916,7 @@
       <c r="B119" t="s">
         <v>475</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="8">
         <v>10500</v>
       </c>
       <c r="D119">
@@ -10988,7 +10988,7 @@
       <c r="B120" t="s">
         <v>524</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="8">
         <v>16995</v>
       </c>
       <c r="D120">
@@ -11063,7 +11063,7 @@
       <c r="B121" t="s">
         <v>422</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="8">
         <v>29997</v>
       </c>
       <c r="D121">
@@ -11138,7 +11138,7 @@
       <c r="B122" t="s">
         <v>510</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="8">
         <v>27591</v>
       </c>
       <c r="D122">
@@ -11213,7 +11213,7 @@
       <c r="B123" t="s">
         <v>437</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="8">
         <v>6994</v>
       </c>
       <c r="D123">
@@ -11288,7 +11288,7 @@
       <c r="B124" t="s">
         <v>516</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="8">
         <v>16995</v>
       </c>
       <c r="D124">
@@ -11363,7 +11363,7 @@
       <c r="B125" t="s">
         <v>418</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125" s="8">
         <v>22349</v>
       </c>
       <c r="D125">
@@ -11438,7 +11438,7 @@
       <c r="B126" t="s">
         <v>433</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="8">
         <v>26391</v>
       </c>
       <c r="D126">
@@ -11513,7 +11513,7 @@
       <c r="B127" t="s">
         <v>434</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127" s="8">
         <v>6990</v>
       </c>
       <c r="D127">
@@ -11588,7 +11588,7 @@
       <c r="B128" t="s">
         <v>435</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="8">
         <v>6995</v>
       </c>
       <c r="D128">
@@ -11663,7 +11663,7 @@
       <c r="B129" t="s">
         <v>436</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="8">
         <v>11495</v>
       </c>
       <c r="D129">
@@ -11738,7 +11738,7 @@
       <c r="B130" t="s">
         <v>439</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="8">
         <v>23991</v>
       </c>
       <c r="D130">
@@ -11813,7 +11813,7 @@
       <c r="B131" t="s">
         <v>441</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131" s="8">
         <v>14499</v>
       </c>
       <c r="D131">
@@ -11888,7 +11888,7 @@
       <c r="B132" t="s">
         <v>444</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132" s="8">
         <v>10952</v>
       </c>
       <c r="D132">
@@ -11963,7 +11963,7 @@
       <c r="B133" t="s">
         <v>448</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133" s="8">
         <v>6990</v>
       </c>
       <c r="D133">
@@ -12038,7 +12038,7 @@
       <c r="B134" t="s">
         <v>485</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134" s="8">
         <v>10995</v>
       </c>
       <c r="D134">
@@ -12113,7 +12113,7 @@
       <c r="B135" t="s">
         <v>518</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="8">
         <v>28995</v>
       </c>
       <c r="D135">
@@ -12188,7 +12188,7 @@
       <c r="B136" t="s">
         <v>519</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="8">
         <v>17691</v>
       </c>
       <c r="D136">
@@ -12263,7 +12263,7 @@
       <c r="B137" t="s">
         <v>477</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="8">
         <v>15700</v>
       </c>
       <c r="D137">
@@ -12338,7 +12338,7 @@
       <c r="B138" t="s">
         <v>506</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="8">
         <v>9895</v>
       </c>
       <c r="D138">
@@ -12413,7 +12413,7 @@
       <c r="B139" t="s">
         <v>459</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="8">
         <v>8999</v>
       </c>
       <c r="D139">
@@ -12488,7 +12488,7 @@
       <c r="B140" t="s">
         <v>412</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="8">
         <v>14495</v>
       </c>
       <c r="D140">
@@ -12563,7 +12563,7 @@
       <c r="B141" t="s">
         <v>449</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="8">
         <v>22687</v>
       </c>
       <c r="D141">
@@ -12638,7 +12638,7 @@
       <c r="B142" t="s">
         <v>484</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="8">
         <v>24000</v>
       </c>
       <c r="D142">
@@ -12713,7 +12713,7 @@
       <c r="B143" t="s">
         <v>504</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="8">
         <v>29299</v>
       </c>
       <c r="D143">
@@ -12788,7 +12788,7 @@
       <c r="B144" t="s">
         <v>405</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144" s="8">
         <v>8995</v>
       </c>
       <c r="D144">
@@ -12863,7 +12863,7 @@
       <c r="B145" t="s">
         <v>451</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145" s="8">
         <v>18554</v>
       </c>
       <c r="D145">
@@ -12938,7 +12938,7 @@
       <c r="B146" t="s">
         <v>532</v>
       </c>
-      <c r="C146" s="3">
+      <c r="C146" s="8">
         <v>29198</v>
       </c>
       <c r="D146">
@@ -13013,7 +13013,7 @@
       <c r="B147" t="s">
         <v>535</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C147" s="8">
         <v>28990</v>
       </c>
       <c r="D147">
@@ -13088,7 +13088,7 @@
       <c r="B148" t="s">
         <v>536</v>
       </c>
-      <c r="C148" s="3">
+      <c r="C148" s="8">
         <v>25990</v>
       </c>
       <c r="D148">
@@ -13163,7 +13163,7 @@
       <c r="B149" t="s">
         <v>417</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149" s="8">
         <v>10495</v>
       </c>
       <c r="D149">
@@ -13238,7 +13238,7 @@
       <c r="B150" t="s">
         <v>432</v>
       </c>
-      <c r="C150" s="3">
+      <c r="C150" s="8">
         <v>19999</v>
       </c>
       <c r="D150">
@@ -13313,7 +13313,7 @@
       <c r="B151" t="s">
         <v>404</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C151" s="8">
         <v>21950</v>
       </c>
       <c r="D151">
@@ -13388,7 +13388,7 @@
       <c r="B152" t="s">
         <v>410</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C152" s="8">
         <v>13450</v>
       </c>
       <c r="D152">
@@ -13463,7 +13463,7 @@
       <c r="B153" t="s">
         <v>468</v>
       </c>
-      <c r="C153" s="3">
+      <c r="C153" s="8">
         <v>13995</v>
       </c>
       <c r="D153">
@@ -13538,7 +13538,7 @@
       <c r="B154" t="s">
         <v>494</v>
       </c>
-      <c r="C154" s="3">
+      <c r="C154" s="8">
         <v>14991</v>
       </c>
       <c r="D154">
@@ -13613,7 +13613,7 @@
       <c r="B155" t="s">
         <v>497</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C155" s="8">
         <v>14000</v>
       </c>
       <c r="D155">
@@ -13688,7 +13688,7 @@
       <c r="B156" t="s">
         <v>521</v>
       </c>
-      <c r="C156" s="3">
+      <c r="C156" s="8">
         <v>14991</v>
       </c>
       <c r="D156">
@@ -13763,7 +13763,7 @@
       <c r="B157" t="s">
         <v>429</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157" s="8">
         <v>8900</v>
       </c>
       <c r="D157">
@@ -13838,7 +13838,7 @@
       <c r="B158" t="s">
         <v>456</v>
       </c>
-      <c r="C158" s="3">
+      <c r="C158" s="8">
         <v>18999</v>
       </c>
       <c r="D158">
@@ -13913,7 +13913,7 @@
       <c r="B159" t="s">
         <v>482</v>
       </c>
-      <c r="C159" s="3">
+      <c r="C159" s="8">
         <v>20995</v>
       </c>
       <c r="D159">
@@ -13988,7 +13988,7 @@
       <c r="B160" t="s">
         <v>501</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C160" s="8">
         <v>8995</v>
       </c>
       <c r="D160">
@@ -14063,7 +14063,7 @@
       <c r="B161" t="s">
         <v>526</v>
       </c>
-      <c r="C161" s="3">
+      <c r="C161" s="8">
         <v>13999</v>
       </c>
       <c r="D161">
@@ -14138,7 +14138,7 @@
       <c r="B162" t="s">
         <v>462</v>
       </c>
-      <c r="C162" s="3">
+      <c r="C162" s="8">
         <v>16950</v>
       </c>
       <c r="D162">
@@ -14213,7 +14213,7 @@
       <c r="B163" t="s">
         <v>398</v>
       </c>
-      <c r="C163" s="3">
+      <c r="C163" s="8">
         <v>20232</v>
       </c>
       <c r="D163">
@@ -14288,7 +14288,7 @@
       <c r="B164" t="s">
         <v>513</v>
       </c>
-      <c r="C164" s="3">
+      <c r="C164" s="8">
         <v>21335</v>
       </c>
       <c r="D164">
@@ -14363,7 +14363,7 @@
       <c r="B165" t="s">
         <v>523</v>
       </c>
-      <c r="C165" s="3">
+      <c r="C165" s="8">
         <v>13900</v>
       </c>
       <c r="D165">
@@ -14438,7 +14438,7 @@
       <c r="B166" t="s">
         <v>415</v>
       </c>
-      <c r="C166" s="3">
+      <c r="C166" s="8">
         <v>17000</v>
       </c>
       <c r="D166">
@@ -14510,7 +14510,7 @@
       <c r="B167" t="s">
         <v>509</v>
       </c>
-      <c r="C167" s="3">
+      <c r="C167" s="8">
         <v>6995</v>
       </c>
       <c r="D167">
@@ -14582,7 +14582,7 @@
       <c r="B168" t="s">
         <v>446</v>
       </c>
-      <c r="C168" s="3">
+      <c r="C168" s="8">
         <v>5995</v>
       </c>
       <c r="D168">
@@ -14657,7 +14657,7 @@
       <c r="B169" t="s">
         <v>472</v>
       </c>
-      <c r="C169" s="3">
+      <c r="C169" s="8">
         <v>14995</v>
       </c>
       <c r="D169">
@@ -14729,7 +14729,7 @@
       <c r="B170" t="s">
         <v>473</v>
       </c>
-      <c r="C170" s="3">
+      <c r="C170" s="8">
         <v>14495</v>
       </c>
       <c r="D170">
@@ -14801,7 +14801,7 @@
       <c r="B171" t="s">
         <v>487</v>
       </c>
-      <c r="C171" s="3">
+      <c r="C171" s="8">
         <v>9495</v>
       </c>
       <c r="D171">
@@ -14873,7 +14873,7 @@
       <c r="B172" t="s">
         <v>507</v>
       </c>
-      <c r="C172" s="3">
+      <c r="C172" s="8">
         <v>9600</v>
       </c>
       <c r="D172">
@@ -14945,7 +14945,7 @@
       <c r="B173" t="s">
         <v>515</v>
       </c>
-      <c r="C173" s="3">
+      <c r="C173" s="8">
         <v>14995</v>
       </c>
       <c r="D173">
@@ -15017,7 +15017,7 @@
       <c r="B174" t="s">
         <v>465</v>
       </c>
-      <c r="C174" s="3">
+      <c r="C174" s="8">
         <v>6500</v>
       </c>
       <c r="D174">
@@ -15089,7 +15089,7 @@
       <c r="B175" t="s">
         <v>480</v>
       </c>
-      <c r="C175" s="3">
+      <c r="C175" s="8">
         <v>4999</v>
       </c>
       <c r="D175">
@@ -15161,7 +15161,7 @@
       <c r="B176" t="s">
         <v>401</v>
       </c>
-      <c r="C176" s="3">
+      <c r="C176" s="8">
         <v>18700</v>
       </c>
       <c r="D176">
@@ -15236,7 +15236,7 @@
       <c r="B177" t="s">
         <v>470</v>
       </c>
-      <c r="C177" s="3">
+      <c r="C177" s="8">
         <v>22998</v>
       </c>
       <c r="D177">
@@ -15311,7 +15311,7 @@
       <c r="B178" t="s">
         <v>489</v>
       </c>
-      <c r="C178" s="3">
+      <c r="C178" s="8">
         <v>6995</v>
       </c>
       <c r="D178">
@@ -15386,7 +15386,7 @@
       <c r="B179" t="s">
         <v>492</v>
       </c>
-      <c r="C179" s="3">
+      <c r="C179" s="8">
         <v>28995</v>
       </c>
       <c r="D179">
@@ -15461,7 +15461,7 @@
       <c r="B180" t="s">
         <v>498</v>
       </c>
-      <c r="C180" s="3">
+      <c r="C180" s="8">
         <v>5183</v>
       </c>
       <c r="D180">
@@ -15536,7 +15536,7 @@
       <c r="B181" t="s">
         <v>502</v>
       </c>
-      <c r="C181" s="3">
+      <c r="C181" s="8">
         <v>20800</v>
       </c>
       <c r="D181">
@@ -15611,7 +15611,7 @@
       <c r="B182" t="s">
         <v>531</v>
       </c>
-      <c r="C182" s="3">
+      <c r="C182" s="8">
         <v>14299</v>
       </c>
       <c r="D182">
@@ -15686,7 +15686,7 @@
       <c r="B183" t="s">
         <v>528</v>
       </c>
-      <c r="C183" s="3">
+      <c r="C183" s="8">
         <v>6995</v>
       </c>
       <c r="D183">
@@ -15761,7 +15761,7 @@
       <c r="B184" t="s">
         <v>424</v>
       </c>
-      <c r="C184" s="3">
+      <c r="C184" s="8">
         <v>13500</v>
       </c>
       <c r="D184">
@@ -15836,7 +15836,7 @@
       <c r="B185" t="s">
         <v>454</v>
       </c>
-      <c r="C185" s="3">
+      <c r="C185" s="8">
         <v>28445</v>
       </c>
       <c r="D185">
@@ -15911,7 +15911,7 @@
       <c r="B186" t="s">
         <v>396</v>
       </c>
-      <c r="C186" s="3">
+      <c r="C186" s="8">
         <v>22988</v>
       </c>
       <c r="D186">
@@ -15986,7 +15986,7 @@
       <c r="B187" t="s">
         <v>397</v>
       </c>
-      <c r="C187" s="3">
+      <c r="C187" s="8">
         <v>25555</v>
       </c>
       <c r="D187">
@@ -16058,7 +16058,7 @@
       <c r="B188" t="s">
         <v>393</v>
       </c>
-      <c r="C188" s="3">
+      <c r="C188" s="8">
         <v>28998</v>
       </c>
       <c r="D188">
@@ -16130,7 +16130,7 @@
       <c r="B189" t="s">
         <v>427</v>
       </c>
-      <c r="C189" s="3">
+      <c r="C189" s="8">
         <v>16990</v>
       </c>
       <c r="D189">
@@ -16205,7 +16205,7 @@
       <c r="B190" t="s">
         <v>421</v>
       </c>
-      <c r="C190" s="3">
+      <c r="C190" s="8">
         <v>15500</v>
       </c>
       <c r="D190">
@@ -16280,7 +16280,7 @@
       <c r="B191" t="s">
         <v>407</v>
       </c>
-      <c r="C191" s="3">
+      <c r="C191" s="8">
         <v>21788</v>
       </c>
       <c r="D191">
@@ -16355,7 +16355,7 @@
       <c r="B192" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="C192" s="16">
+      <c r="C192" s="22">
         <v>5995</v>
       </c>
       <c r="D192" s="15">
@@ -16373,7 +16373,7 @@
       <c r="H192" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="I192" s="17">
+      <c r="I192" s="21">
         <v>134000</v>
       </c>
       <c r="J192" s="15" t="b">
@@ -16430,7 +16430,7 @@
       <c r="B193" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="C193" s="16">
+      <c r="C193" s="22">
         <v>23995</v>
       </c>
       <c r="D193" s="15">
@@ -16448,7 +16448,7 @@
       <c r="H193" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="I193" s="17">
+      <c r="I193" s="21">
         <v>52183</v>
       </c>
       <c r="J193" s="15" t="b">
@@ -16505,7 +16505,7 @@
       <c r="B194" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C194" s="16">
+      <c r="C194" s="22">
         <v>22899</v>
       </c>
       <c r="D194" s="15">
@@ -16523,7 +16523,7 @@
       <c r="H194" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="I194" s="17">
+      <c r="I194" s="21">
         <v>90888</v>
       </c>
       <c r="J194" s="15" t="b">
@@ -16580,7 +16580,7 @@
       <c r="B195" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="C195" s="16">
+      <c r="C195" s="22">
         <v>9999</v>
       </c>
       <c r="D195" s="15">
@@ -16598,7 +16598,7 @@
       <c r="H195" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="I195" s="17">
+      <c r="I195" s="21">
         <v>125905</v>
       </c>
       <c r="J195" s="15" t="b">
@@ -16655,7 +16655,7 @@
       <c r="B196" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="C196" s="16">
+      <c r="C196" s="22">
         <v>18998</v>
       </c>
       <c r="D196" s="15">
@@ -16673,7 +16673,7 @@
       <c r="H196" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="I196" s="17">
+      <c r="I196" s="21">
         <v>142474</v>
       </c>
       <c r="J196" s="15" t="b">
@@ -16730,7 +16730,7 @@
       <c r="B197" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="C197" s="16">
+      <c r="C197" s="22">
         <v>11000</v>
       </c>
       <c r="D197" s="15">
@@ -16748,7 +16748,7 @@
       <c r="H197" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="I197" s="17">
+      <c r="I197" s="21">
         <v>86475</v>
       </c>
       <c r="J197" s="15" t="b">
@@ -16805,7 +16805,7 @@
       <c r="B198" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="C198" s="16">
+      <c r="C198" s="22">
         <v>23400</v>
       </c>
       <c r="D198" s="15">
@@ -16823,7 +16823,7 @@
       <c r="H198" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="I198" s="17">
+      <c r="I198" s="21">
         <v>8742</v>
       </c>
       <c r="J198" s="15" t="b">
@@ -16880,7 +16880,7 @@
       <c r="B199" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="C199" s="16">
+      <c r="C199" s="22">
         <v>29990</v>
       </c>
       <c r="D199" s="15">
@@ -16898,7 +16898,7 @@
       <c r="H199" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="I199" s="17">
+      <c r="I199" s="21">
         <v>104812</v>
       </c>
       <c r="J199" s="15" t="b">
@@ -16955,7 +16955,7 @@
       <c r="B200" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="C200" s="16">
+      <c r="C200" s="22">
         <v>17995</v>
       </c>
       <c r="D200" s="15">
@@ -16973,7 +16973,7 @@
       <c r="H200" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="I200" s="17">
+      <c r="I200" s="21">
         <v>99565</v>
       </c>
       <c r="J200" s="15" t="b">
@@ -17030,7 +17030,7 @@
       <c r="B201" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="C201" s="16">
+      <c r="C201" s="22">
         <v>14998</v>
       </c>
       <c r="D201" s="15">
@@ -17048,7 +17048,7 @@
       <c r="H201" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="I201" s="17">
+      <c r="I201" s="21">
         <v>109029</v>
       </c>
       <c r="J201" s="15" t="b">
@@ -17105,7 +17105,7 @@
       <c r="B202" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="C202" s="16">
+      <c r="C202" s="22">
         <v>14999</v>
       </c>
       <c r="D202" s="15">
@@ -17123,7 +17123,7 @@
       <c r="H202" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="I202" s="17">
+      <c r="I202" s="21">
         <v>72799</v>
       </c>
       <c r="J202" s="15" t="b">
@@ -17180,7 +17180,7 @@
       <c r="B203" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="C203" s="16">
+      <c r="C203" s="22">
         <v>18995</v>
       </c>
       <c r="D203" s="15">
@@ -17198,7 +17198,7 @@
       <c r="H203" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="I203" s="17">
+      <c r="I203" s="21">
         <v>101294</v>
       </c>
       <c r="J203" s="15" t="b">
@@ -17255,7 +17255,7 @@
       <c r="B204" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="C204" s="16">
+      <c r="C204" s="22">
         <v>23000</v>
       </c>
       <c r="D204" s="15">
@@ -17273,7 +17273,7 @@
       <c r="H204" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="I204" s="17">
+      <c r="I204" s="21">
         <v>85450</v>
       </c>
       <c r="J204" s="15" t="b">
@@ -17330,7 +17330,7 @@
       <c r="B205" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="C205" s="16">
+      <c r="C205" s="22">
         <v>13899</v>
       </c>
       <c r="D205" s="15">
@@ -17348,7 +17348,7 @@
       <c r="H205" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="I205" s="17">
+      <c r="I205" s="21">
         <v>102670</v>
       </c>
       <c r="J205" s="15" t="b">
@@ -17405,7 +17405,7 @@
       <c r="B206" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="C206" s="16">
+      <c r="C206" s="22">
         <v>8599</v>
       </c>
       <c r="D206" s="15">
@@ -17421,7 +17421,7 @@
       <c r="H206" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="I206" s="15">
+      <c r="I206" s="21">
         <v>136710</v>
       </c>
       <c r="J206" s="15" t="b">
@@ -17478,7 +17478,7 @@
       <c r="B207" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="C207" s="16">
+      <c r="C207" s="22">
         <v>19995</v>
       </c>
       <c r="D207" s="15">
@@ -17496,7 +17496,7 @@
       <c r="H207" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="I207" s="17">
+      <c r="I207" s="21">
         <v>94309</v>
       </c>
       <c r="J207" s="15" t="b">
@@ -17553,7 +17553,7 @@
       <c r="B208" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="C208" s="16">
+      <c r="C208" s="22">
         <v>7950</v>
       </c>
       <c r="D208" s="15">
@@ -17571,7 +17571,7 @@
       <c r="H208" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="I208" s="17">
+      <c r="I208" s="21">
         <v>147841</v>
       </c>
       <c r="J208" s="15" t="b">
@@ -17628,7 +17628,7 @@
       <c r="B209" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C209" s="16">
+      <c r="C209" s="22">
         <v>12499</v>
       </c>
       <c r="D209" s="15">
@@ -17646,7 +17646,7 @@
       <c r="H209" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="I209" s="17">
+      <c r="I209" s="21">
         <v>106520</v>
       </c>
       <c r="J209" s="15" t="b">
@@ -17703,7 +17703,7 @@
       <c r="B210" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="C210" s="16">
+      <c r="C210" s="22">
         <v>5500</v>
       </c>
       <c r="D210" s="15">
@@ -17721,7 +17721,7 @@
       <c r="H210" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="I210" s="17">
+      <c r="I210" s="21">
         <v>160000</v>
       </c>
       <c r="J210" s="15" t="b">
@@ -17778,7 +17778,7 @@
       <c r="B211" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="C211" s="16">
+      <c r="C211" s="22">
         <v>4999</v>
       </c>
       <c r="D211" s="15">
@@ -17796,7 +17796,7 @@
       <c r="H211" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="I211" s="17">
+      <c r="I211" s="21">
         <v>233784</v>
       </c>
       <c r="J211" s="15" t="b">
@@ -17853,7 +17853,7 @@
       <c r="B212" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="C212" s="16">
+      <c r="C212" s="22">
         <v>26619</v>
       </c>
       <c r="D212" s="15">
@@ -17871,7 +17871,7 @@
       <c r="H212" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="I212" s="17">
+      <c r="I212" s="21">
         <v>12111</v>
       </c>
       <c r="J212" s="15" t="b">
@@ -17928,7 +17928,7 @@
       <c r="B213" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="C213" s="16">
+      <c r="C213" s="22">
         <v>18193</v>
       </c>
       <c r="D213" s="15">
@@ -17946,7 +17946,7 @@
       <c r="H213" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="I213" s="17">
+      <c r="I213" s="21">
         <v>75500</v>
       </c>
       <c r="J213" s="15" t="b">
@@ -18003,7 +18003,7 @@
       <c r="B214" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="C214" s="16">
+      <c r="C214" s="22">
         <v>21995</v>
       </c>
       <c r="D214" s="15">
@@ -18021,7 +18021,7 @@
       <c r="H214" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="I214" s="17">
+      <c r="I214" s="21">
         <v>14215</v>
       </c>
       <c r="J214" s="15" t="b">
@@ -22212,7 +22212,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H55">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(H2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22243,76 +22243,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="V1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="W1" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="X1" s="16" t="s">
         <v>332</v>
       </c>
     </row>
@@ -25690,7 +25690,7 @@
       <c r="H2" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="19">
         <v>121256</v>
       </c>
       <c r="J2" s="10" t="b">
@@ -25765,7 +25765,7 @@
       <c r="H3" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="19">
         <v>106759</v>
       </c>
       <c r="J3" s="10" t="b">
@@ -25840,7 +25840,7 @@
       <c r="H4" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="19">
         <v>135863</v>
       </c>
       <c r="J4" s="10" t="b">
@@ -25915,7 +25915,7 @@
       <c r="H5" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="19">
         <v>98108</v>
       </c>
       <c r="J5" s="10" t="b">
@@ -25990,7 +25990,7 @@
       <c r="H6" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="19">
         <v>152500</v>
       </c>
       <c r="J6" s="10" t="b">
@@ -26065,7 +26065,7 @@
       <c r="H7" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="19">
         <v>157888</v>
       </c>
       <c r="J7" s="10" t="b">
@@ -26140,7 +26140,7 @@
       <c r="H8" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="19">
         <v>114152</v>
       </c>
       <c r="J8" s="10" t="b">
@@ -26215,7 +26215,7 @@
       <c r="H9" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="19">
         <v>111561</v>
       </c>
       <c r="J9" s="10" t="b">
@@ -26290,7 +26290,7 @@
       <c r="H10" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="19">
         <v>203497</v>
       </c>
       <c r="J10" s="10" t="b">
@@ -26365,7 +26365,7 @@
       <c r="H11" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="19">
         <v>810333</v>
       </c>
       <c r="J11" s="10" t="b">
@@ -26440,7 +26440,7 @@
       <c r="H12" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="19">
         <v>75120</v>
       </c>
       <c r="J12" s="10" t="b">
@@ -26746,7 +26746,7 @@
       <c r="H2" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="19">
         <v>154543</v>
       </c>
       <c r="J2" s="10" t="b">
@@ -26821,7 +26821,7 @@
       <c r="H3" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="19">
         <v>156000</v>
       </c>
       <c r="J3" s="10" t="b">
@@ -26896,7 +26896,7 @@
       <c r="H4" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="19">
         <v>151631</v>
       </c>
       <c r="J4" s="10" t="b">
@@ -26971,7 +26971,7 @@
       <c r="H5" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="19">
         <v>199503</v>
       </c>
       <c r="J5" s="10" t="b">
@@ -27046,7 +27046,7 @@
       <c r="H6" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="19">
         <v>265630</v>
       </c>
       <c r="J6" s="10" t="b">
@@ -27121,7 +27121,7 @@
       <c r="H7" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="19">
         <v>197594</v>
       </c>
       <c r="J7" s="10" t="b">
@@ -27196,7 +27196,7 @@
       <c r="H8" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="19">
         <v>220439</v>
       </c>
       <c r="J8" s="10" t="b">
@@ -27271,7 +27271,7 @@
       <c r="H9" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="19">
         <v>133278</v>
       </c>
       <c r="J9" s="10" t="b">
@@ -27346,7 +27346,7 @@
       <c r="H10" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="19">
         <v>223734</v>
       </c>
       <c r="J10" s="10" t="b">
@@ -27650,7 +27650,7 @@
       <c r="H2" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="19">
         <v>103425</v>
       </c>
       <c r="J2" s="10" t="b">
@@ -27725,7 +27725,7 @@
       <c r="H3" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="19">
         <v>129320</v>
       </c>
       <c r="J3" s="10" t="b">
@@ -27800,7 +27800,7 @@
       <c r="H4" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="19">
         <v>57783</v>
       </c>
       <c r="J4" s="10" t="b">
@@ -27875,7 +27875,7 @@
       <c r="H5" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="19">
         <v>91755</v>
       </c>
       <c r="J5" s="10" t="b">
@@ -27950,7 +27950,7 @@
       <c r="H6" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="19">
         <v>132551</v>
       </c>
       <c r="J6" s="10" t="b">
@@ -28025,7 +28025,7 @@
       <c r="H7" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="19">
         <v>117191</v>
       </c>
       <c r="J7" s="10" t="b">
@@ -28100,7 +28100,7 @@
       <c r="H8" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="19">
         <v>69477</v>
       </c>
       <c r="J8" s="10" t="b">
@@ -28175,7 +28175,7 @@
       <c r="H9" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="19">
         <v>47371</v>
       </c>
       <c r="J9" s="10" t="b">
@@ -28250,7 +28250,7 @@
       <c r="H10" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="19">
         <v>149375</v>
       </c>
       <c r="J10" s="10" t="b">
@@ -28325,7 +28325,7 @@
       <c r="H11" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="19">
         <v>127311</v>
       </c>
       <c r="J11" s="10" t="b">
@@ -28400,7 +28400,7 @@
       <c r="H12" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="19">
         <v>133051</v>
       </c>
       <c r="J12" s="10" t="b">
@@ -28475,7 +28475,7 @@
       <c r="H13" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="19">
         <v>96499</v>
       </c>
       <c r="J13" s="10" t="b">
@@ -28550,7 +28550,7 @@
       <c r="H14" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="19">
         <v>103079</v>
       </c>
       <c r="J14" s="10" t="b">
@@ -28625,7 +28625,7 @@
       <c r="H15" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="19">
         <v>127947</v>
       </c>
       <c r="J15" s="10" t="b">
@@ -28700,7 +28700,7 @@
       <c r="H16" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="19">
         <v>151519</v>
       </c>
       <c r="J16" s="10" t="b">
@@ -28775,7 +28775,7 @@
       <c r="H17" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="19">
         <v>78726</v>
       </c>
       <c r="J17" s="10" t="b">
@@ -28850,7 +28850,7 @@
       <c r="H18" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="19">
         <v>72715</v>
       </c>
       <c r="J18" s="10" t="b">
@@ -28925,7 +28925,7 @@
       <c r="H19" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="19">
         <v>105063</v>
       </c>
       <c r="J19" s="10" t="b">
@@ -29000,7 +29000,7 @@
       <c r="H20" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="19">
         <v>57598</v>
       </c>
       <c r="J20" s="10" t="b">
@@ -29075,7 +29075,7 @@
       <c r="H21" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="19">
         <v>110000</v>
       </c>
       <c r="J21" s="10" t="b">
@@ -29150,7 +29150,7 @@
       <c r="H22" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="19">
         <v>71000</v>
       </c>
       <c r="J22" s="10" t="b">
@@ -29225,7 +29225,7 @@
       <c r="H23" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="19">
         <v>7036</v>
       </c>
       <c r="J23" s="10" t="b">
@@ -29300,7 +29300,7 @@
       <c r="H24" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="19">
         <v>98338</v>
       </c>
       <c r="J24" s="10" t="b">
@@ -29375,7 +29375,7 @@
       <c r="H25" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="19">
         <v>67983</v>
       </c>
       <c r="J25" s="10" t="b">
@@ -29450,7 +29450,7 @@
       <c r="H26" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="19">
         <v>50764</v>
       </c>
       <c r="J26" s="10" t="b">
@@ -29525,7 +29525,7 @@
       <c r="H27" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="19">
         <v>114168</v>
       </c>
       <c r="J27" s="10" t="b">
@@ -29600,7 +29600,7 @@
       <c r="H28" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="19">
         <v>65441</v>
       </c>
       <c r="J28" s="10" t="b">
@@ -29675,7 +29675,7 @@
       <c r="H29" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="19">
         <v>20743</v>
       </c>
       <c r="J29" s="10" t="b">
@@ -29750,7 +29750,7 @@
       <c r="H30" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="19">
         <v>44068</v>
       </c>
       <c r="J30" s="10" t="b">
@@ -29825,7 +29825,7 @@
       <c r="H31" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="19">
         <v>72770</v>
       </c>
       <c r="J31" s="10" t="b">
@@ -29900,7 +29900,7 @@
       <c r="H32" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="19">
         <v>148125</v>
       </c>
       <c r="J32" s="10" t="b">
@@ -29975,7 +29975,7 @@
       <c r="H33" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="19">
         <v>32268</v>
       </c>
       <c r="J33" s="10" t="b">
@@ -30050,7 +30050,7 @@
       <c r="H34" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="19">
         <v>39450</v>
       </c>
       <c r="J34" s="10" t="b">
@@ -30125,7 +30125,7 @@
       <c r="H35" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="19">
         <v>47112</v>
       </c>
       <c r="J35" s="10" t="b">
@@ -30200,7 +30200,7 @@
       <c r="H36" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="19">
         <v>101000</v>
       </c>
       <c r="J36" s="10" t="b">
@@ -30275,7 +30275,7 @@
       <c r="H37" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="19">
         <v>80638</v>
       </c>
       <c r="J37" s="10" t="b">
@@ -30350,7 +30350,7 @@
       <c r="H38" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="19">
         <v>94563</v>
       </c>
       <c r="J38" s="10" t="b">
@@ -30419,13 +30419,13 @@
       <c r="F39" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="20" t="s">
         <v>522</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I39" s="21">
+      <c r="I39" s="19">
         <v>50405</v>
       </c>
       <c r="J39" s="10" t="b">
@@ -30500,7 +30500,7 @@
       <c r="H40" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="19">
         <v>94033</v>
       </c>
       <c r="J40" s="10" t="b">
@@ -30575,7 +30575,7 @@
       <c r="H41" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41" s="19">
         <v>62035</v>
       </c>
       <c r="J41" s="10" t="b">
@@ -30650,7 +30650,7 @@
       <c r="H42" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I42" s="21">
+      <c r="I42" s="19">
         <v>66681</v>
       </c>
       <c r="J42" s="10" t="b">
@@ -30725,7 +30725,7 @@
       <c r="H43" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="19">
         <v>90829</v>
       </c>
       <c r="J43" s="10" t="b">
@@ -30800,7 +30800,7 @@
       <c r="H44" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I44" s="19">
         <v>49500</v>
       </c>
       <c r="J44" s="10" t="b">
@@ -30875,7 +30875,7 @@
       <c r="H45" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="19">
         <v>70272</v>
       </c>
       <c r="J45" s="10" t="b">
@@ -30950,7 +30950,7 @@
       <c r="H46" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46" s="19">
         <v>71159</v>
       </c>
       <c r="J46" s="10" t="b">
@@ -31025,7 +31025,7 @@
       <c r="H47" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I47" s="21">
+      <c r="I47" s="19">
         <v>74164</v>
       </c>
       <c r="J47" s="10" t="b">
@@ -31100,7 +31100,7 @@
       <c r="H48" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I48" s="21">
+      <c r="I48" s="19">
         <v>154498</v>
       </c>
       <c r="J48" s="10" t="b">
@@ -31173,7 +31173,7 @@
       <c r="H49" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I49" s="21">
+      <c r="I49" s="19">
         <v>92592</v>
       </c>
       <c r="J49" s="10" t="b">
@@ -31246,7 +31246,7 @@
       <c r="H50" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I50" s="21">
+      <c r="I50" s="19">
         <v>171214</v>
       </c>
       <c r="J50" s="10" t="b">
@@ -31321,7 +31321,7 @@
       <c r="H51" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I51" s="21">
+      <c r="I51" s="19">
         <v>157800</v>
       </c>
       <c r="J51" s="10" t="b">
@@ -31394,7 +31394,7 @@
       <c r="H52" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I52" s="21">
+      <c r="I52" s="19">
         <v>115440</v>
       </c>
       <c r="J52" s="10" t="b">
@@ -31467,7 +31467,7 @@
       <c r="H53" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I53" s="21">
+      <c r="I53" s="19">
         <v>153437</v>
       </c>
       <c r="J53" s="10" t="b">
@@ -31540,7 +31540,7 @@
       <c r="H54" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I54" s="21">
+      <c r="I54" s="19">
         <v>111781</v>
       </c>
       <c r="J54" s="10" t="b">
@@ -31613,7 +31613,7 @@
       <c r="H55" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I55" s="21">
+      <c r="I55" s="19">
         <v>155000</v>
       </c>
       <c r="J55" s="10" t="b">
@@ -31686,7 +31686,7 @@
       <c r="H56" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I56" s="21">
+      <c r="I56" s="19">
         <v>76663</v>
       </c>
       <c r="J56" s="10" t="b">
@@ -31759,7 +31759,7 @@
       <c r="H57" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I57" s="21">
+      <c r="I57" s="19">
         <v>120030</v>
       </c>
       <c r="J57" s="10" t="b">
@@ -31832,7 +31832,7 @@
       <c r="H58" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I58" s="21">
+      <c r="I58" s="19">
         <v>118033</v>
       </c>
       <c r="J58" s="10" t="b">
@@ -31907,7 +31907,7 @@
       <c r="H59" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I59" s="21">
+      <c r="I59" s="19">
         <v>64385</v>
       </c>
       <c r="J59" s="10" t="b">
@@ -31982,7 +31982,7 @@
       <c r="H60" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I60" s="21">
+      <c r="I60" s="19">
         <v>44523</v>
       </c>
       <c r="J60" s="10" t="b">
@@ -32057,7 +32057,7 @@
       <c r="H61" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I61" s="21">
+      <c r="I61" s="19">
         <v>139141</v>
       </c>
       <c r="J61" s="10" t="b">
@@ -32132,7 +32132,7 @@
       <c r="H62" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I62" s="21">
+      <c r="I62" s="19">
         <v>53581</v>
       </c>
       <c r="J62" s="10" t="b">
@@ -32207,7 +32207,7 @@
       <c r="H63" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I63" s="21">
+      <c r="I63" s="19">
         <v>120221</v>
       </c>
       <c r="J63" s="10" t="b">
@@ -32282,7 +32282,7 @@
       <c r="H64" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I64" s="21">
+      <c r="I64" s="19">
         <v>101619</v>
       </c>
       <c r="J64" s="10" t="b">
@@ -32357,7 +32357,7 @@
       <c r="H65" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I65" s="21">
+      <c r="I65" s="19">
         <v>98345</v>
       </c>
       <c r="J65" s="10" t="b">
@@ -32432,7 +32432,7 @@
       <c r="H66" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I66" s="21">
+      <c r="I66" s="19">
         <v>71100</v>
       </c>
       <c r="J66" s="10" t="b">
@@ -32507,7 +32507,7 @@
       <c r="H67" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I67" s="21">
+      <c r="I67" s="19">
         <v>59164</v>
       </c>
       <c r="J67" s="10" t="b">
@@ -32582,7 +32582,7 @@
       <c r="H68" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I68" s="21">
+      <c r="I68" s="19">
         <v>10536</v>
       </c>
       <c r="J68" s="10" t="b">
@@ -32657,7 +32657,7 @@
       <c r="H69" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I69" s="21">
+      <c r="I69" s="19">
         <v>51086</v>
       </c>
       <c r="J69" s="10" t="b">
@@ -32730,7 +32730,7 @@
       <c r="H70" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I70" s="21">
+      <c r="I70" s="19">
         <v>30632</v>
       </c>
       <c r="J70" s="10" t="b">
@@ -32803,7 +32803,7 @@
       <c r="H71" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I71" s="21">
+      <c r="I71" s="19">
         <v>9936</v>
       </c>
       <c r="J71" s="10" t="b">
@@ -32878,7 +32878,7 @@
       <c r="H72" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I72" s="21">
+      <c r="I72" s="19">
         <v>19857</v>
       </c>
       <c r="J72" s="10" t="b">
@@ -32953,7 +32953,7 @@
       <c r="H73" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I73" s="21">
+      <c r="I73" s="19">
         <v>60901</v>
       </c>
       <c r="J73" s="10" t="b">
@@ -33028,7 +33028,7 @@
       <c r="H74" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="I74" s="21">
+      <c r="I74" s="19">
         <v>4480</v>
       </c>
       <c r="J74" s="10" t="b">
@@ -35045,7 +35045,7 @@
     <sortCondition ref="E1:E71"/>
   </sortState>
   <conditionalFormatting sqref="A2:F24 H2:V24">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
